--- a/GA/src/fxd_cost_veh_whol_cust.xlsx
+++ b/GA/src/fxd_cost_veh_whol_cust.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA2999A-CE4F-DC41-A7DA-FDFFD6DBF688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B149F934-698B-764D-A660-3768BBC5A857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{07FDE7DA-1A49-B948-9704-B2E4F675A06F}"/>
+    <workbookView xWindow="76600" yWindow="9040" windowWidth="21480" windowHeight="13680" xr2:uid="{07FDE7DA-1A49-B948-9704-B2E4F675A06F}"/>
   </bookViews>
   <sheets>
     <sheet name="wholesalerA" sheetId="1" r:id="rId1"/>
     <sheet name="wholesalerB" sheetId="2" r:id="rId2"/>
     <sheet name="wholesalerC" sheetId="3" r:id="rId3"/>
+    <sheet name="wholesalerD" sheetId="4" r:id="rId4"/>
+    <sheet name="wholesalerE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>retailerA</t>
   </si>
@@ -49,10 +51,13 @@
     <t>VehicleB</t>
   </si>
   <si>
-    <t>VehicleC</t>
+    <t>retailerC</t>
   </si>
   <si>
-    <t>retailerC</t>
+    <t>retailerD</t>
+  </si>
+  <si>
+    <t>retailerE</t>
   </si>
 </sst>
 </file>
@@ -411,13 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0746C2BD-A951-BE48-84C8-DBB2EF4DAB09}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -425,8 +432,17 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -436,8 +452,17 @@
       <c r="C2" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -446,6 +471,15 @@
       </c>
       <c r="C3" s="1">
         <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -455,15 +489,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F84BEE-EB7E-0944-8814-C04265481B13}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="D1" sqref="D1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -471,8 +505,17 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -482,8 +525,17 @@
       <c r="C2" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -491,6 +543,15 @@
         <v>18</v>
       </c>
       <c r="C3" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1">
         <v>17</v>
       </c>
     </row>
@@ -501,15 +562,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD15750C-306B-CC4E-825C-ABA2776C5E5E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -518,50 +579,218 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F0DA4E-0E5C-084F-8CC6-B2F3EF831FFF}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
         <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB22920-DECB-A344-87D0-103F69F85277}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>17</v>
-      </c>
+      <c r="C3" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
